--- a/sampledata/SampleExcel.xlsx
+++ b/sampledata/SampleExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samshenoi/Desktop/projects/SchedulePickerVisualization/SchedulePicker/sampledata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC28BCB8-5E9C-C44F-92D6-FF16052E82B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412F202E-6B5C-BB43-A8A5-AB16A19175CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29720" yWindow="1980" windowWidth="28040" windowHeight="14860" xr2:uid="{659C4D87-9135-2844-9CB6-8B57B991A852}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{659C4D87-9135-2844-9CB6-8B57B991A852}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6210,6 +6210,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="39.1640625" customWidth="1"/>
+    <col min="5" max="5" width="42.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
